--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ltf-Lrp11.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H2">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I2">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J2">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.281632</v>
+        <v>0.4067693333333334</v>
       </c>
       <c r="N2">
-        <v>0.844896</v>
+        <v>1.220308</v>
       </c>
       <c r="O2">
-        <v>0.08643864448749744</v>
+        <v>0.1164607724076721</v>
       </c>
       <c r="P2">
-        <v>0.08643864448749744</v>
+        <v>0.1164607724076721</v>
       </c>
       <c r="Q2">
-        <v>1.613403168970667</v>
+        <v>0.06655573390977779</v>
       </c>
       <c r="R2">
-        <v>14.520628520736</v>
+        <v>0.5990016051880001</v>
       </c>
       <c r="S2">
-        <v>0.08493633563110632</v>
+        <v>0.03896709360846601</v>
       </c>
       <c r="T2">
-        <v>0.08493633563110632</v>
+        <v>0.03896709360846601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H3">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I3">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J3">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.522227</v>
       </c>
       <c r="O3">
-        <v>0.3603479333045306</v>
+        <v>0.3361456919197101</v>
       </c>
       <c r="P3">
-        <v>0.3603479333045306</v>
+        <v>0.33614569191971</v>
       </c>
       <c r="Q3">
-        <v>6.726002021117445</v>
+        <v>0.1921026519385556</v>
       </c>
       <c r="R3">
-        <v>60.534018190057</v>
+        <v>1.728923867447</v>
       </c>
       <c r="S3">
-        <v>0.3540850644824271</v>
+        <v>0.1124723833812992</v>
       </c>
       <c r="T3">
-        <v>0.3540850644824271</v>
+        <v>0.1124723833812991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.728763666666667</v>
+        <v>0.1636203333333333</v>
       </c>
       <c r="H4">
-        <v>17.186291</v>
+        <v>0.490861</v>
       </c>
       <c r="I4">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="J4">
-        <v>0.9826199396658931</v>
+        <v>0.3345941539187231</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.498144</v>
+        <v>1.368657333333333</v>
       </c>
       <c r="N4">
-        <v>4.494432</v>
+        <v>4.105972</v>
       </c>
       <c r="O4">
-        <v>0.4598111599785442</v>
+        <v>0.391855720526518</v>
       </c>
       <c r="P4">
-        <v>0.4598111599785442</v>
+        <v>0.391855720526518</v>
       </c>
       <c r="Q4">
-        <v>8.582512914634666</v>
+        <v>0.2239401690991111</v>
       </c>
       <c r="R4">
-        <v>77.24261623171199</v>
+        <v>2.015461521892</v>
       </c>
       <c r="S4">
-        <v>0.4518196142758214</v>
+        <v>0.1311126332677819</v>
       </c>
       <c r="T4">
-        <v>0.4518196142758215</v>
+        <v>0.1311126332677819</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>21</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.1636203333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.490861</v>
+      </c>
+      <c r="I5">
+        <v>0.3345941539187231</v>
+      </c>
+      <c r="J5">
+        <v>0.3345941539187231</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>5.728763666666667</v>
-      </c>
-      <c r="H5">
-        <v>17.186291</v>
-      </c>
-      <c r="I5">
-        <v>0.9826199396658931</v>
-      </c>
-      <c r="J5">
-        <v>0.9826199396658931</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.3043206666666667</v>
+        <v>0.543256</v>
       </c>
       <c r="N5">
-        <v>0.9129620000000001</v>
+        <v>1.629768</v>
       </c>
       <c r="O5">
-        <v>0.09340226222942781</v>
+        <v>0.1555378151460999</v>
       </c>
       <c r="P5">
-        <v>0.09340226222942782</v>
+        <v>0.1555378151460999</v>
       </c>
       <c r="Q5">
-        <v>1.743381178215778</v>
+        <v>0.08888772780533333</v>
       </c>
       <c r="R5">
-        <v>15.690430603942</v>
+        <v>0.7999895502479999</v>
       </c>
       <c r="S5">
-        <v>0.09177892527653828</v>
+        <v>0.05204204366117605</v>
       </c>
       <c r="T5">
-        <v>0.09177892527653829</v>
+        <v>0.05204204366117605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H6">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I6">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J6">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.281632</v>
+        <v>0.4067693333333334</v>
       </c>
       <c r="N6">
-        <v>0.844896</v>
+        <v>1.220308</v>
       </c>
       <c r="O6">
-        <v>0.08643864448749744</v>
+        <v>0.1164607724076721</v>
       </c>
       <c r="P6">
-        <v>0.08643864448749744</v>
+        <v>0.1164607724076721</v>
       </c>
       <c r="Q6">
-        <v>0.02853701954133333</v>
+        <v>0.1323590801426667</v>
       </c>
       <c r="R6">
-        <v>0.256833175872</v>
+        <v>1.191231721284</v>
       </c>
       <c r="S6">
-        <v>0.001502308856391118</v>
+        <v>0.07749367879920607</v>
       </c>
       <c r="T6">
-        <v>0.001502308856391118</v>
+        <v>0.07749367879920606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H7">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I7">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J7">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>3.522227</v>
       </c>
       <c r="O7">
-        <v>0.3603479333045306</v>
+        <v>0.3361456919197101</v>
       </c>
       <c r="P7">
-        <v>0.3603479333045306</v>
+        <v>0.33614569191971</v>
       </c>
       <c r="Q7">
-        <v>0.1189659564348889</v>
+        <v>0.3820336552523334</v>
       </c>
       <c r="R7">
-        <v>1.070693607914</v>
+        <v>3.438302897271</v>
       </c>
       <c r="S7">
-        <v>0.006262868822103453</v>
+        <v>0.223673308538411</v>
       </c>
       <c r="T7">
-        <v>0.006262868822103453</v>
+        <v>0.2236733085384109</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.1013273333333333</v>
+        <v>0.325391</v>
       </c>
       <c r="H8">
-        <v>0.303982</v>
+        <v>0.9761730000000001</v>
       </c>
       <c r="I8">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="J8">
-        <v>0.01738006033410685</v>
+        <v>0.665405846081277</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.498144</v>
+        <v>1.368657333333333</v>
       </c>
       <c r="N8">
-        <v>4.494432</v>
+        <v>4.105972</v>
       </c>
       <c r="O8">
-        <v>0.4598111599785442</v>
+        <v>0.391855720526518</v>
       </c>
       <c r="P8">
-        <v>0.4598111599785442</v>
+        <v>0.391855720526518</v>
       </c>
       <c r="Q8">
-        <v>0.1518029364693333</v>
+        <v>0.4453487783506667</v>
       </c>
       <c r="R8">
-        <v>1.366226428224</v>
+        <v>4.008139005156001</v>
       </c>
       <c r="S8">
-        <v>0.007991545702722754</v>
+        <v>0.2607430872587361</v>
       </c>
       <c r="T8">
-        <v>0.007991545702722754</v>
+        <v>0.2607430872587361</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>21</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.325391</v>
+      </c>
+      <c r="H9">
+        <v>0.9761730000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.665405846081277</v>
+      </c>
+      <c r="J9">
+        <v>0.665405846081277</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.1013273333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.303982</v>
-      </c>
-      <c r="I9">
-        <v>0.01738006033410685</v>
-      </c>
-      <c r="J9">
-        <v>0.01738006033410685</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.3043206666666667</v>
+        <v>0.543256</v>
       </c>
       <c r="N9">
-        <v>0.9129620000000001</v>
+        <v>1.629768</v>
       </c>
       <c r="O9">
-        <v>0.09340226222942781</v>
+        <v>0.1555378151460999</v>
       </c>
       <c r="P9">
-        <v>0.09340226222942782</v>
+        <v>0.1555378151460999</v>
       </c>
       <c r="Q9">
-        <v>0.03083600163155556</v>
+        <v>0.176770613096</v>
       </c>
       <c r="R9">
-        <v>0.2775240146840001</v>
+        <v>1.590935517864</v>
       </c>
       <c r="S9">
-        <v>0.001623336952889525</v>
+        <v>0.1034957714849239</v>
       </c>
       <c r="T9">
-        <v>0.001623336952889525</v>
+        <v>0.1034957714849238</v>
       </c>
     </row>
   </sheetData>
